--- a/AutoLoggingConsole/bin/Debug/Config.xlsx
+++ b/AutoLoggingConsole/bin/Debug/Config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Server Name</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Total tag</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>Database</t>
@@ -71,19 +71,31 @@
     <t>User name</t>
   </si>
   <si>
-    <t>sfef</t>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Dev01.Group001.Tag002</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>sfefs</t>
+    <t>techgel.com</t>
+  </si>
+  <si>
+    <t>Dev01.Group001.Tag003</t>
+  </si>
+  <si>
+    <t>UInt16</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
     <t>SETTING</t>
+  </si>
+  <si>
+    <t>Dev01.Tag001</t>
   </si>
 </sst>
 </file>
@@ -293,12 +305,12 @@
         <v>16</v>
       </c>
       <c r="B7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -309,21 +321,39 @@
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/AutoLoggingConsole/bin/Debug/Config.xlsx
+++ b/AutoLoggingConsole/bin/Debug/Config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Server Name</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Total tag</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>Database</t>
@@ -47,7 +47,7 @@
     <t>OpcDa Server</t>
   </si>
   <si>
-    <t>Mitsubishi.MXOPC.6</t>
+    <t>Mitsubishi.MXOPC</t>
   </si>
   <si>
     <t>Dev01.Group001.Group002.Group003.Tag006</t>
@@ -71,19 +71,31 @@
     <t>User name</t>
   </si>
   <si>
-    <t>sfef</t>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Dev01.Group001.Tag002</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>sfefs</t>
+    <t>shc@1234</t>
+  </si>
+  <si>
+    <t>Dev01.Tag001</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
     <t>SETTING</t>
+  </si>
+  <si>
+    <t>Dev01.Group001.Tag003</t>
+  </si>
+  <si>
+    <t>UInt16</t>
   </si>
 </sst>
 </file>
@@ -293,12 +305,12 @@
         <v>16</v>
       </c>
       <c r="B7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -309,21 +321,39 @@
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
